--- a/Laporan Progress MC Sertification & Monitoring System_28122016.xlsx
+++ b/Laporan Progress MC Sertification & Monitoring System_28122016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Kantor\02. Project\02. Project Litbang\01. Document\01. Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Kantor\02. Project\02. Project Litbang\01. Document\01. Schedule\Progress\Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Detail Progress" sheetId="2" r:id="rId1"/>
     <sheet name="Hak Akses &amp; Contoh Form" sheetId="3" r:id="rId2"/>
     <sheet name="Global" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -230,6 +230,7 @@
 Data Perusahaan :
 1. Belum terdapat validasi untuk textbox No Telp, Fax
 2. List Kota seharusnya tampil sesuai Provinsi terpilih
+3. Seharusnya terdapat list dokumen yang sudah diupload, dan pemohon dapat download kembali.
 </t>
         </r>
       </text>
@@ -261,6 +262,33 @@
 - Size Textarea "Alamat Perusahaan"  sepertinya kurang besar.
  - Posisi Tombol "Batal Simpan" sebaiknya diletakkan di pojok kanan sj seperti di form profil anggota
 - Untuk tampilan bisa dibuat lebih menarik</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PERTIWI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1. Textbox kode pos sebaiknya tidak hanya menampung 5 digit.
+2. File yang sudah diupload belum bisa didownload
+3. Jika pemohon sudah klik tombol simpan, kemudian klik tombol kembali, tetapi lupa klik tombol "Ajukan". Apakah pemohon harus selalu mengisi ulang data produk?
+Seharunya tombol "Simpan", dan "Kembali" harus non aktif sebelum user klik tombol "Ajukan".</t>
         </r>
       </text>
     </comment>
@@ -421,6 +449,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">PERTIWI:
+1. Pada Tabel : Sepertinya terbalik data untuk kolom Nama dan Perusahaan.
+2. Tombol validasi sebaiknya satu saja.
+3. Jika klik tab "Data Perusahaan", kenapa tidak bisa balik lagi ke tab "Penanggung Jawab"?
+4. Tidak terdapat list dokumen perusahaan yang sudah diupload
+5. Semua textbox sebaiknya non aktif, untuk menghindari perubahan data pemohon oleh backoffice
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
@@ -448,6 +496,31 @@
 Not OK :
 - Apakah perlu dirubah menjadi Bahasa Indonesia untuk : show, search, showing, previous? 
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PERTIWI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1. Sebaiknya semua textbox non aktif.
+2. Dokumen yang diupload belum bisa didownload</t>
         </r>
       </text>
     </comment>
@@ -1061,7 +1134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="187">
   <si>
     <t>Front End (Sisi Pemohon Sebelum Login)</t>
   </si>
@@ -1610,9 +1683,6 @@
     <t>Konfirmasi Pembayaran - Modul FR.PM.4</t>
   </si>
   <si>
-    <t>Validasi Sertifikasi - Modul Validasi Pemohon &amp; Produk</t>
-  </si>
-  <si>
     <t>Modul Checkin Device  + Modul Modul Create Tanda Terima Barang (Check In)</t>
   </si>
   <si>
@@ -1623,13 +1693,22 @@
   </si>
   <si>
     <t>Modul Pedaftaran Akun + Modul  Lupa Password</t>
+  </si>
+  <si>
+    <t>HASIL TESTING</t>
+  </si>
+  <si>
+    <t>Modul Daftar Pemohon (Penanggung Jawab dan Perusahaan)</t>
+  </si>
+  <si>
+    <t>Validasi Sertifikasi - (Validasi Produk)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1706,6 +1785,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1932,7 +2019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2069,6 +2156,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2173,6 +2263,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2585,10 +2684,10 @@
                   <c:v>1.6842105263157894E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1578947368421061E-2</c:v>
+                  <c:v>8.3947368421052646E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12921052631578947</c:v>
+                  <c:v>0.15368421052631576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,11 +2704,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="573332608"/>
-        <c:axId val="573332048"/>
+        <c:axId val="583636064"/>
+        <c:axId val="583635504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="573332608"/>
+        <c:axId val="583636064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573332048"/>
+        <c:crossAx val="583635504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2659,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="573332048"/>
+        <c:axId val="583635504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,7 +2808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573332608"/>
+        <c:crossAx val="583636064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3375,16 +3474,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28773</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>75286</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3393,16 +3492,126 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="19760" t="4846" r="20960" b="11633"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28773" y="190500"/>
-          <a:ext cx="8648502" cy="4647286"/>
+          <a:off x="2105025" y="342900"/>
+          <a:ext cx="4981575" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347206</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="23947" t="8121" r="24458" b="5166"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2140324" y="3798795"/>
+          <a:ext cx="3047823" cy="2879912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8865</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="23601" t="7507" r="25493" b="14052"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5454924" y="3720353"/>
+          <a:ext cx="3789929" cy="3059204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>70155</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="13971" t="4137" b="56183"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2017059" y="6981264"/>
+          <a:ext cx="7734978" cy="2196353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3680,10 +3889,10 @@
   <dimension ref="A1:R1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,31 +3917,31 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="77" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="78" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="46"/>
       <c r="E3" s="8" t="s">
         <v>131</v>
@@ -3746,30 +3955,30 @@
       <c r="H3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
@@ -3803,35 +4012,35 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
         <v>175</v>
@@ -3867,7 +4076,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
         <v>174</v>
@@ -3882,11 +4091,11 @@
         <v>0.2</v>
       </c>
       <c r="G9" s="36">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="H9" s="28">
         <f>SUM(E9:G9)</f>
-        <v>0.81</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="I9" s="56" t="s">
         <v>126</v>
@@ -3896,14 +4105,14 @@
       </c>
       <c r="K9" s="59">
         <f t="shared" ref="K9:K14" si="0">H9</f>
-        <v>0.81</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="R9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
         <v>176</v>
@@ -3918,11 +4127,11 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="36">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H10" s="28">
         <f>SUM(E10:G10)</f>
-        <v>0.39</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="I10" s="56" t="s">
         <v>126</v>
@@ -3932,32 +4141,32 @@
       </c>
       <c r="K10" s="59">
         <f t="shared" si="0"/>
-        <v>0.39</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="R10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
       <c r="K11" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="58"/>
       <c r="C12" s="61" t="s">
         <v>177</v>
@@ -3990,7 +4199,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
         <v>178</v>
@@ -4026,7 +4235,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
         <v>179</v>
@@ -4062,46 +4271,46 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
       <c r="K15" s="59">
         <f t="shared" ref="K15:K52" si="1">H15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
       <c r="K16" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="D17" s="19">
         <v>1</v>
@@ -4113,11 +4322,11 @@
         <v>0.2</v>
       </c>
       <c r="G17" s="37">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H17" s="29">
         <f>SUM(E17:G17)</f>
-        <v>0.39</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="I17" s="57" t="s">
         <v>126</v>
@@ -4127,7 +4336,7 @@
       </c>
       <c r="K17" s="59">
         <f t="shared" si="1"/>
-        <v>0.39</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="L17">
         <v>0.2</v>
@@ -4152,10 +4361,10 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D18" s="19">
         <v>1</v>
@@ -4167,11 +4376,11 @@
         <v>0.2</v>
       </c>
       <c r="G18" s="37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" ref="H18:H26" si="2">SUM(E18:G18)</f>
-        <v>0.39</v>
+        <v>0.89</v>
       </c>
       <c r="I18" s="57" t="s">
         <v>126</v>
@@ -4181,7 +4390,7 @@
       </c>
       <c r="K18" s="59">
         <f t="shared" si="1"/>
-        <v>0.39</v>
+        <v>0.89</v>
       </c>
       <c r="L18" s="40">
         <v>0.2</v>
@@ -4206,7 +4415,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
         <v>98</v>
@@ -4242,7 +4451,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
         <v>99</v>
@@ -4278,7 +4487,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
         <v>100</v>
@@ -4314,7 +4523,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
         <v>101</v>
@@ -4350,7 +4559,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
         <v>102</v>
@@ -4386,7 +4595,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
         <v>133</v>
@@ -4422,7 +4631,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
         <v>103</v>
@@ -4458,7 +4667,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
         <v>104</v>
@@ -4494,28 +4703,28 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="79" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
       <c r="K27" s="59">
         <f>H27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="19">
         <v>1</v>
@@ -4548,10 +4757,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="19">
         <v>1</v>
@@ -4584,10 +4793,10 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" s="19">
         <v>1</v>
@@ -4620,25 +4829,25 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="79" t="s">
+      <c r="A31" s="84"/>
+      <c r="B31" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
       <c r="K31" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
         <v>107</v>
@@ -4674,7 +4883,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19" t="s">
         <v>51</v>
@@ -4710,7 +4919,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
         <v>108</v>
@@ -4746,7 +4955,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
         <v>109</v>
@@ -4782,25 +4991,25 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="79" t="s">
+      <c r="A36" s="84"/>
+      <c r="B36" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
       <c r="K36" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19" t="s">
         <v>110</v>
@@ -4836,7 +5045,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19" t="s">
         <v>111</v>
@@ -4872,7 +5081,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19" t="s">
         <v>112</v>
@@ -4908,25 +5117,25 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="79" t="s">
+      <c r="A40" s="84"/>
+      <c r="B40" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
       <c r="K40" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="84"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19" t="s">
         <v>113</v>
@@ -4959,25 +5168,25 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="79" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
       <c r="K42" s="59">
         <f>H42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26" t="s">
         <v>123</v>
@@ -5013,7 +5222,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26" t="s">
         <v>124</v>
@@ -5049,7 +5258,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26" t="s">
         <v>125</v>
@@ -5085,7 +5294,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26" t="s">
         <v>122</v>
@@ -5121,7 +5330,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19" t="s">
         <v>114</v>
@@ -5157,7 +5366,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19" t="s">
         <v>115</v>
@@ -5193,7 +5402,7 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19" t="s">
         <v>116</v>
@@ -5229,7 +5438,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19" t="s">
         <v>117</v>
@@ -5265,7 +5474,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="22" t="s">
         <v>137</v>
       </c>
@@ -5283,7 +5492,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
+      <c r="A52" s="84"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19" t="s">
         <v>138</v>
@@ -5319,7 +5528,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19" t="s">
         <v>139</v>
@@ -5355,16 +5564,16 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="81"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
       <c r="K54" s="60"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -5426,7 +5635,7 @@
       </c>
       <c r="F59" s="42">
         <f>SUM(K8:K14)/D55</f>
-        <v>7.1578947368421061E-2</v>
+        <v>8.3947368421052646E-2</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="39"/>
@@ -5445,7 +5654,7 @@
       </c>
       <c r="F60" s="42">
         <f>SUM(K17:K53)/D55</f>
-        <v>0.12921052631578947</v>
+        <v>0.15368421052631576</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -5459,7 +5668,7 @@
       </c>
       <c r="F61" s="50">
         <f>SUM(F58:F60)</f>
-        <v>0.21763157894736843</v>
+        <v>0.2544736842105263</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -5532,29 +5741,29 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="92" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="92"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="45" t="s">
         <v>67</v>
       </c>
@@ -5572,22 +5781,22 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="93"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
         <v>136</v>
@@ -5606,33 +5815,33 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="94"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="95"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="95"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="96"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
         <v>88</v>
@@ -5651,7 +5860,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
         <v>89</v>
@@ -5670,7 +5879,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
         <v>90</v>
@@ -5689,20 +5898,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="96"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="97"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
         <v>92</v>
@@ -5719,7 +5928,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
         <v>93</v>
@@ -5738,33 +5947,33 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="90"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="91"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
         <v>95</v>
@@ -5781,7 +5990,7 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
         <v>96</v>
@@ -5798,7 +6007,7 @@
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
         <v>97</v>
@@ -5815,7 +6024,7 @@
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
         <v>98</v>
@@ -5834,7 +6043,7 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
         <v>99</v>
@@ -5853,7 +6062,7 @@
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
         <v>100</v>
@@ -5870,7 +6079,7 @@
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
         <v>101</v>
@@ -5887,7 +6096,7 @@
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
         <v>102</v>
@@ -5904,7 +6113,7 @@
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
         <v>133</v>
@@ -5923,7 +6132,7 @@
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
         <v>103</v>
@@ -5940,7 +6149,7 @@
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
         <v>104</v>
@@ -5957,20 +6166,20 @@
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="79" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="91"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
         <v>105</v>
@@ -5989,7 +6198,7 @@
       <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
         <v>120</v>
@@ -6008,7 +6217,7 @@
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
         <v>106</v>
@@ -6023,7 +6232,7 @@
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19" t="s">
         <v>121</v>
@@ -6038,20 +6247,20 @@
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="79" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="91"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="92"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19" t="s">
         <v>107</v>
@@ -6068,7 +6277,7 @@
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
         <v>51</v>
@@ -6087,7 +6296,7 @@
       <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
         <v>108</v>
@@ -6106,7 +6315,7 @@
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19" t="s">
         <v>109</v>
@@ -6125,20 +6334,20 @@
       <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="79" t="s">
+      <c r="A37" s="84"/>
+      <c r="B37" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="91"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="92"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19" t="s">
         <v>110</v>
@@ -6155,7 +6364,7 @@
       <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19" t="s">
         <v>111</v>
@@ -6176,7 +6385,7 @@
       <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19" t="s">
         <v>112</v>
@@ -6197,20 +6406,20 @@
       <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="79" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="91"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="92"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19" t="s">
         <v>113</v>
@@ -6233,20 +6442,20 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="79" t="s">
+      <c r="A43" s="84"/>
+      <c r="B43" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="91"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="92"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26" t="s">
         <v>123</v>
@@ -6261,7 +6470,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26" t="s">
         <v>124</v>
@@ -6276,7 +6485,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26" t="s">
         <v>125</v>
@@ -6291,7 +6500,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26" t="s">
         <v>122</v>
@@ -6306,7 +6515,7 @@
       <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19" t="s">
         <v>114</v>
@@ -6321,7 +6530,7 @@
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19" t="s">
         <v>115</v>
@@ -6336,7 +6545,7 @@
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19" t="s">
         <v>116</v>
@@ -6351,7 +6560,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19" t="s">
         <v>117</v>
@@ -6366,7 +6575,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
+      <c r="A52" s="84"/>
       <c r="B52" s="22" t="s">
         <v>137</v>
       </c>
@@ -6379,7 +6588,7 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19" t="s">
         <v>138</v>
@@ -6394,7 +6603,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19" t="s">
         <v>139</v>
@@ -6409,15 +6618,15 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -6468,17 +6677,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -6568,17 +6777,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
@@ -6837,14 +7046,1557 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="100"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="101"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="100"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="100"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="100"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="100"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="100"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="100"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="101"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="101"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="100"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="100"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="100"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="100"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="100"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
+      <c r="R41" s="101"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="101"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="100"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="101"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="100"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="101"/>
+      <c r="O43" s="101"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="101"/>
+      <c r="R43" s="101"/>
+      <c r="S43" s="101"/>
+      <c r="T43" s="101"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="100"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="101"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="101"/>
+      <c r="R44" s="101"/>
+      <c r="S44" s="101"/>
+      <c r="T44" s="101"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="100"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="101"/>
+      <c r="P45" s="101"/>
+      <c r="Q45" s="101"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="100"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="101"/>
+      <c r="O46" s="101"/>
+      <c r="P46" s="101"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="101"/>
+      <c r="S46" s="101"/>
+      <c r="T46" s="101"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="100"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
+      <c r="O47" s="101"/>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="101"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="101"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="100"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
+      <c r="N48" s="101"/>
+      <c r="O48" s="101"/>
+      <c r="P48" s="101"/>
+      <c r="Q48" s="101"/>
+      <c r="R48" s="101"/>
+      <c r="S48" s="101"/>
+      <c r="T48" s="101"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="100"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="101"/>
+      <c r="N49" s="101"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="101"/>
+      <c r="Q49" s="101"/>
+      <c r="R49" s="101"/>
+      <c r="S49" s="101"/>
+      <c r="T49" s="101"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="100"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="101"/>
+      <c r="N50" s="101"/>
+      <c r="O50" s="101"/>
+      <c r="P50" s="101"/>
+      <c r="Q50" s="101"/>
+      <c r="R50" s="101"/>
+      <c r="S50" s="101"/>
+      <c r="T50" s="101"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="100"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="101"/>
+      <c r="M51" s="101"/>
+      <c r="N51" s="101"/>
+      <c r="O51" s="101"/>
+      <c r="P51" s="101"/>
+      <c r="Q51" s="101"/>
+      <c r="R51" s="101"/>
+      <c r="S51" s="101"/>
+      <c r="T51" s="101"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="100"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="101"/>
+      <c r="L53" s="101"/>
+      <c r="M53" s="101"/>
+      <c r="N53" s="101"/>
+      <c r="O53" s="101"/>
+      <c r="P53" s="101"/>
+      <c r="Q53" s="101"/>
+      <c r="R53" s="101"/>
+      <c r="S53" s="101"/>
+      <c r="T53" s="101"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="100"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="101"/>
+      <c r="M54" s="101"/>
+      <c r="N54" s="101"/>
+      <c r="O54" s="101"/>
+      <c r="P54" s="101"/>
+      <c r="Q54" s="101"/>
+      <c r="R54" s="101"/>
+      <c r="S54" s="101"/>
+      <c r="T54" s="101"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="100"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="101"/>
+      <c r="N55" s="101"/>
+      <c r="O55" s="101"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="101"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="101"/>
+      <c r="T55" s="101"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="100"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="101"/>
+      <c r="N56" s="101"/>
+      <c r="O56" s="101"/>
+      <c r="P56" s="101"/>
+      <c r="Q56" s="101"/>
+      <c r="R56" s="101"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="101"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="100"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="101"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="100"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="101"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="101"/>
+      <c r="O58" s="101"/>
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
+      <c r="S58" s="101"/>
+      <c r="T58" s="101"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="100"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="101"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="101"/>
+      <c r="N59" s="101"/>
+      <c r="O59" s="101"/>
+      <c r="P59" s="101"/>
+      <c r="Q59" s="101"/>
+      <c r="R59" s="101"/>
+      <c r="S59" s="101"/>
+      <c r="T59" s="101"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="100"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="101"/>
+      <c r="L60" s="101"/>
+      <c r="M60" s="101"/>
+      <c r="N60" s="101"/>
+      <c r="O60" s="101"/>
+      <c r="P60" s="101"/>
+      <c r="Q60" s="101"/>
+      <c r="R60" s="101"/>
+      <c r="S60" s="101"/>
+      <c r="T60" s="101"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="100"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="101"/>
+      <c r="I61" s="101"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="101"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="101"/>
+      <c r="N61" s="101"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="101"/>
+      <c r="Q61" s="101"/>
+      <c r="R61" s="101"/>
+      <c r="S61" s="101"/>
+      <c r="T61" s="101"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="100"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="101"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="101"/>
+      <c r="L62" s="101"/>
+      <c r="M62" s="101"/>
+      <c r="N62" s="101"/>
+      <c r="O62" s="101"/>
+      <c r="P62" s="101"/>
+      <c r="Q62" s="101"/>
+      <c r="R62" s="101"/>
+      <c r="S62" s="101"/>
+      <c r="T62" s="101"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="100"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="101"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="101"/>
+      <c r="Q63" s="101"/>
+      <c r="R63" s="101"/>
+      <c r="S63" s="101"/>
+      <c r="T63" s="101"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="100"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="101"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="101"/>
+      <c r="N64" s="101"/>
+      <c r="O64" s="101"/>
+      <c r="P64" s="101"/>
+      <c r="Q64" s="101"/>
+      <c r="R64" s="101"/>
+      <c r="S64" s="101"/>
+      <c r="T64" s="101"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="101"/>
+      <c r="L65" s="101"/>
+      <c r="M65" s="101"/>
+      <c r="N65" s="101"/>
+      <c r="O65" s="101"/>
+      <c r="P65" s="101"/>
+      <c r="Q65" s="101"/>
+      <c r="R65" s="101"/>
+      <c r="S65" s="101"/>
+      <c r="T65" s="101"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="100"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="101"/>
+      <c r="K66" s="101"/>
+      <c r="L66" s="101"/>
+      <c r="M66" s="101"/>
+      <c r="N66" s="101"/>
+      <c r="O66" s="101"/>
+      <c r="P66" s="101"/>
+      <c r="Q66" s="101"/>
+      <c r="R66" s="101"/>
+      <c r="S66" s="101"/>
+      <c r="T66" s="101"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="100"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="101"/>
+      <c r="J67" s="101"/>
+      <c r="K67" s="101"/>
+      <c r="L67" s="101"/>
+      <c r="M67" s="101"/>
+      <c r="N67" s="101"/>
+      <c r="O67" s="101"/>
+      <c r="P67" s="101"/>
+      <c r="Q67" s="101"/>
+      <c r="R67" s="101"/>
+      <c r="S67" s="101"/>
+      <c r="T67" s="101"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="101"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="101"/>
+      <c r="M68" s="101"/>
+      <c r="N68" s="101"/>
+      <c r="O68" s="101"/>
+      <c r="P68" s="101"/>
+      <c r="Q68" s="101"/>
+      <c r="R68" s="101"/>
+      <c r="S68" s="101"/>
+      <c r="T68" s="101"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="100"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
+      <c r="J69" s="101"/>
+      <c r="K69" s="101"/>
+      <c r="L69" s="101"/>
+      <c r="M69" s="101"/>
+      <c r="N69" s="101"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="101"/>
+      <c r="Q69" s="101"/>
+      <c r="R69" s="101"/>
+      <c r="S69" s="101"/>
+      <c r="T69" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A19:C35"/>
+    <mergeCell ref="D19:T35"/>
+    <mergeCell ref="A36:C52"/>
+    <mergeCell ref="D36:T52"/>
+    <mergeCell ref="A53:C69"/>
+    <mergeCell ref="D53:T69"/>
+    <mergeCell ref="A2:C18"/>
+    <mergeCell ref="D2:T18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Laporan Progress MC Sertification & Monitoring System_28122016.xlsx
+++ b/Laporan Progress MC Sertification & Monitoring System_28122016.xlsx
@@ -592,8 +592,13 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-- Mohon dirubah menjadi Bahasa Indonesia untuk : show, search, showing, previous
-- Mohon dijelaskan kenapa yang ditampilkan setelah klik tombol Open yaitu form Pengiriman produk"Tapi isinya serah terima sertifikat" ?</t>
+- Apakah perlu dirubah menjadi Bahasa Indonesia untuk : show, search, showing, previous? 
+- Notifikasi jika pemohon sudah melakukan pembayaran itu seperti apa di portal?
+- Judul dari surat perintah testing salah.
+- Di SOP surat tersebut disend, tetapi diportal dicetak.
+- Mohon format surat dibuat lebih rapi.
+- Di SOP, jika pembayaran tidak sesuai dengan total invoice, maka staff akan create note ke produsen. Fasilitas ini belum tersedia di modul check pembayaran.
+</t>
         </r>
       </text>
     </comment>
@@ -680,7 +685,20 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>PERTIWI:</t>
+          <t xml:space="preserve">PERTIWI:
+OK:
+- Belum terdapat fungsi untuk insert note jika device dan produk yang diterima tidak valid.
+NOT OK: 
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bagaimana cara membedakan antara produk yang sudah diproses atau belum di Modul Penerimaan Produk?</t>
         </r>
         <r>
           <rPr>
@@ -690,8 +708,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-- Mohon dirubah menjadi Bahasa Indonesia untuk : show, search, showing, previous, Qty, Command, dan button2nya.
-- Belum terdapat fungsi untuk insert note jika device dan produk yang diterima tidak valid.
+- Apakah perlu dirubah menjadi Bahasa Indonesia untuk : show, search, showing, previous? 
 - Format penerimaan produk harus dibuat lebih rapi
 </t>
         </r>
@@ -755,7 +772,8 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>PERTIWI:</t>
+          <t>PERTIWI:
+OK:</t>
         </r>
         <r>
           <rPr>
@@ -766,9 +784,9 @@
           </rPr>
           <t xml:space="preserve">
 1. Di SOP terdapat input no rak, Kenapa tidak ada form untuk input no rak? 
-2. Format BAST salah 
-3. Setelah cetak BAST, tercreate otomatis no urut pengujian. Seharusnya ada info no urut ini pada tabel atau form
-4. Terdapat beberapa kata yang masih menggunakan bahasa Inggris
+NOT OK :
+1. Format BAST ada yang kurang, bagaimana jika seperti format yang pernah dikirim yaitu pada sheet "Receipt Goods2"
+2. Setelah cetak BAST, tercreate otomatis no urut pengujian. Seharusnya ada info no urut ini pada tabel atau form
 </t>
         </r>
       </text>
@@ -799,7 +817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0">
+    <comment ref="E33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -810,21 +828,9 @@
             <charset val="1"/>
           </rPr>
           <t>PERTIWI:
-informasi apa yang akan diberikan pada modul stockopname?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>PERTIWI:</t>
+OK:
+1. Fungsi tombol options?
+NOT OK:</t>
         </r>
         <r>
           <rPr>
@@ -834,9 +840,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-1. Terdapat bbrp kata yang menggunakan bhs Inggris
-2. Fungsi tombol options?
-3. Tampilannya kurang rapi</t>
+1. Terdapat bbrp kata yang menggunakan bhs Inggris : Edit</t>
         </r>
       </text>
     </comment>
@@ -862,7 +866,8 @@
           <t xml:space="preserve">
 1. Apakah tidak ada form untuk input hasil test setelah user klik tombol "Hasil dari test"?
 2. Terdapat bbrp kata yang menggunakan bhs Inggris
-3. Tampilannya kurang rapi</t>
+3. Tampilannya kurang rapi
+4. Perbedaan antara Input hasil Uji dan Review hasil uji pada portal? Karena Format dan Contents di kedua modul sama.</t>
         </r>
       </text>
     </comment>
@@ -959,7 +964,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Format sertifikat perlu dibicarakan kembali.</t>
+Format sertifikat perlu dibicarakan kembali, dan bagaimana jika sesuai format di sheet "Evidence Handover1"?</t>
         </r>
       </text>
     </comment>
@@ -1134,7 +1139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="188">
   <si>
     <t>Front End (Sisi Pemohon Sebelum Login)</t>
   </si>
@@ -1702,6 +1707,9 @@
   </si>
   <si>
     <t>Validasi Sertifikasi - (Validasi Produk)</t>
+  </si>
+  <si>
+    <t>Modul Hasil Pengujian (Input Hasil Uji + Review Hasil Uji)</t>
   </si>
 </sst>
 </file>
@@ -2159,6 +2167,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2204,45 +2245,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2258,20 +2260,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2687,7 +2695,7 @@
                   <c:v>8.3947368421052646E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15368421052631576</c:v>
+                  <c:v>0.17263157894736841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2704,11 +2712,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="583636064"/>
-        <c:axId val="583635504"/>
+        <c:axId val="100272592"/>
+        <c:axId val="584847312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="583636064"/>
+        <c:axId val="100272592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583635504"/>
+        <c:crossAx val="584847312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2758,7 +2766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="583635504"/>
+        <c:axId val="584847312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,7 +2816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583636064"/>
+        <c:crossAx val="100272592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3889,10 +3897,10 @@
   <dimension ref="A1:R1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,31 +3925,31 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="78" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="89" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="46"/>
       <c r="E3" s="8" t="s">
         <v>131</v>
@@ -3955,27 +3963,27 @@
       <c r="H3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
         <v>183</v>
@@ -4012,35 +4020,35 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
         <v>175</v>
@@ -4076,7 +4084,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
         <v>174</v>
@@ -4112,7 +4120,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
         <v>176</v>
@@ -4148,25 +4156,25 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="58"/>
       <c r="C12" s="61" t="s">
         <v>177</v>
@@ -4199,7 +4207,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
         <v>178</v>
@@ -4235,7 +4243,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
         <v>179</v>
@@ -4271,43 +4279,43 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="59">
         <f t="shared" ref="K15:K52" si="1">H15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
       <c r="K16" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
         <v>185</v>
@@ -4361,7 +4369,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
         <v>186</v>
@@ -4415,7 +4423,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
         <v>98</v>
@@ -4451,7 +4459,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
         <v>99</v>
@@ -4487,7 +4495,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
         <v>100</v>
@@ -4523,7 +4531,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
         <v>101</v>
@@ -4559,7 +4567,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
         <v>102</v>
@@ -4568,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="29">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F23" s="29">
         <v>0</v>
@@ -4578,7 +4586,7 @@
       </c>
       <c r="H23" s="29">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I23" s="57" t="s">
         <v>126</v>
@@ -4588,14 +4596,14 @@
       </c>
       <c r="K23" s="59">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="R23" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
         <v>133</v>
@@ -4604,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="29">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F24" s="29">
         <v>0</v>
@@ -4614,7 +4622,7 @@
       </c>
       <c r="H24" s="29">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I24" s="57" t="s">
         <v>126</v>
@@ -4624,14 +4632,14 @@
       </c>
       <c r="K24" s="59">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="R24" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
         <v>103</v>
@@ -4640,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="29">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F25" s="29">
         <v>0</v>
@@ -4650,7 +4658,7 @@
       </c>
       <c r="H25" s="29">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I25" s="57" t="s">
         <v>126</v>
@@ -4660,14 +4668,14 @@
       </c>
       <c r="K25" s="59">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="R25" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
         <v>104</v>
@@ -4703,25 +4711,25 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="80" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
       <c r="K27" s="59">
         <f>H27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
         <v>180</v>
@@ -4730,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="29">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F28" s="29">
         <v>0</v>
@@ -4740,7 +4748,7 @@
       </c>
       <c r="H28" s="29">
         <f>SUM(E28:G28)</f>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I28" s="57" t="s">
         <v>126</v>
@@ -4750,14 +4758,14 @@
       </c>
       <c r="K28" s="59">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="R28" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
         <v>181</v>
@@ -4793,7 +4801,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
         <v>182</v>
@@ -4802,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="29">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F30" s="29">
         <v>0</v>
@@ -4812,7 +4820,7 @@
       </c>
       <c r="H30" s="29">
         <f>SUM(E30:G30)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I30" s="57" t="s">
         <v>126</v>
@@ -4822,32 +4830,32 @@
       </c>
       <c r="K30" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="80" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
       <c r="K31" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19" t="s">
         <v>107</v>
@@ -4856,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="29">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F32" s="29">
         <v>0</v>
@@ -4866,7 +4874,7 @@
       </c>
       <c r="H32" s="29">
         <f>SUM(E32:G32)</f>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I32" s="57" t="s">
         <v>126</v>
@@ -4876,14 +4884,14 @@
       </c>
       <c r="K32" s="59">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="R32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19" t="s">
         <v>51</v>
@@ -4892,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="29">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="F33" s="29">
         <v>0</v>
@@ -4902,7 +4910,7 @@
       </c>
       <c r="H33" s="29">
         <f>SUM(E33:G33)</f>
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I33" s="57" t="s">
         <v>126</v>
@@ -4912,23 +4920,23 @@
       </c>
       <c r="K33" s="59">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="R33" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D34" s="19">
         <v>1</v>
       </c>
       <c r="E34" s="29">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="F34" s="29">
         <v>0</v>
@@ -4938,7 +4946,7 @@
       </c>
       <c r="H34" s="29">
         <f>SUM(E34:G34)</f>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I34" s="57" t="s">
         <v>126</v>
@@ -4948,14 +4956,14 @@
       </c>
       <c r="K34" s="59">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="R34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
         <v>109</v>
@@ -4964,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="29">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F35" s="29">
         <v>0</v>
@@ -4974,7 +4982,7 @@
       </c>
       <c r="H35" s="29">
         <f>SUM(E35:G35)</f>
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I35" s="57" t="s">
         <v>126</v>
@@ -4984,32 +4992,32 @@
       </c>
       <c r="K35" s="59">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="R35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="80" t="s">
+      <c r="A36" s="69"/>
+      <c r="B36" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
       <c r="K36" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19" t="s">
         <v>110</v>
@@ -5018,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="29">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F37" s="29">
         <v>0</v>
@@ -5028,7 +5036,7 @@
       </c>
       <c r="H37" s="29">
         <f>SUM(E37:G37)</f>
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I37" s="57" t="s">
         <v>126</v>
@@ -5038,14 +5046,14 @@
       </c>
       <c r="K37" s="59">
         <f>H37</f>
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="R37" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19" t="s">
         <v>111</v>
@@ -5054,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="29">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F38" s="29">
         <v>0</v>
@@ -5064,7 +5072,7 @@
       </c>
       <c r="H38" s="29">
         <f>SUM(E38:G38)</f>
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I38" s="57" t="s">
         <v>126</v>
@@ -5074,14 +5082,14 @@
       </c>
       <c r="K38" s="59">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="R38" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19" t="s">
         <v>112</v>
@@ -5090,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="29">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F39" s="29">
         <v>0</v>
@@ -5100,7 +5108,7 @@
       </c>
       <c r="H39" s="29">
         <f>SUM(E39:G39)</f>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I39" s="57" t="s">
         <v>126</v>
@@ -5110,32 +5118,32 @@
       </c>
       <c r="K39" s="59">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="R39" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="80" t="s">
+      <c r="A40" s="69"/>
+      <c r="B40" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
       <c r="K40" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19" t="s">
         <v>113</v>
@@ -5168,25 +5176,25 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="80" t="s">
+      <c r="A42" s="69"/>
+      <c r="B42" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
       <c r="K42" s="59">
         <f>H42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26" t="s">
         <v>123</v>
@@ -5195,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="30">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F43" s="30">
         <v>0.2</v>
@@ -5205,7 +5213,7 @@
       </c>
       <c r="H43" s="30">
         <f>SUM(E43:G43)</f>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I43" s="57" t="s">
         <v>126</v>
@@ -5215,14 +5223,14 @@
       </c>
       <c r="K43" s="59">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="R43" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26" t="s">
         <v>124</v>
@@ -5231,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="30">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F44" s="30">
         <v>0.2</v>
@@ -5241,7 +5249,7 @@
       </c>
       <c r="H44" s="30">
         <f t="shared" ref="H44:H50" si="3">SUM(E44:G44)</f>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I44" s="57" t="s">
         <v>126</v>
@@ -5251,14 +5259,14 @@
       </c>
       <c r="K44" s="59">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="R44" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26" t="s">
         <v>125</v>
@@ -5267,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="30">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F45" s="30">
         <v>0.2</v>
@@ -5277,7 +5285,7 @@
       </c>
       <c r="H45" s="30">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I45" s="57" t="s">
         <v>126</v>
@@ -5287,14 +5295,14 @@
       </c>
       <c r="K45" s="59">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="R45" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26" t="s">
         <v>122</v>
@@ -5303,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="30">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F46" s="30">
         <v>0.2</v>
@@ -5313,7 +5321,7 @@
       </c>
       <c r="H46" s="30">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I46" s="57" t="s">
         <v>126</v>
@@ -5323,14 +5331,14 @@
       </c>
       <c r="K46" s="59">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="R46" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
+      <c r="A47" s="69"/>
       <c r="B47" s="18"/>
       <c r="C47" s="19" t="s">
         <v>114</v>
@@ -5339,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="29">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F47" s="29">
         <v>0</v>
@@ -5349,7 +5357,7 @@
       </c>
       <c r="H47" s="30">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I47" s="57" t="s">
         <v>126</v>
@@ -5359,14 +5367,14 @@
       </c>
       <c r="K47" s="59">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="R47" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19" t="s">
         <v>115</v>
@@ -5375,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="29">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F48" s="29">
         <v>0</v>
@@ -5385,7 +5393,7 @@
       </c>
       <c r="H48" s="30">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I48" s="57" t="s">
         <v>126</v>
@@ -5395,14 +5403,14 @@
       </c>
       <c r="K48" s="59">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="R48" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19" t="s">
         <v>116</v>
@@ -5411,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="29">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F49" s="29">
         <v>0</v>
@@ -5421,7 +5429,7 @@
       </c>
       <c r="H49" s="30">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I49" s="57" t="s">
         <v>126</v>
@@ -5431,14 +5439,14 @@
       </c>
       <c r="K49" s="59">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="R49" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19" t="s">
         <v>117</v>
@@ -5447,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="29">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F50" s="29">
         <v>0</v>
@@ -5457,7 +5465,7 @@
       </c>
       <c r="H50" s="30">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I50" s="57" t="s">
         <v>126</v>
@@ -5467,14 +5475,14 @@
       </c>
       <c r="K50" s="59">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="R50" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="22" t="s">
         <v>137</v>
       </c>
@@ -5492,7 +5500,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19" t="s">
         <v>138</v>
@@ -5528,7 +5536,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="85"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19" t="s">
         <v>139</v>
@@ -5564,16 +5572,16 @@
       </c>
     </row>
     <row r="54" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
       <c r="K54" s="60"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -5654,7 +5662,7 @@
       </c>
       <c r="F60" s="42">
         <f>SUM(K17:K53)/D55</f>
-        <v>0.15368421052631576</v>
+        <v>0.17263157894736841</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -5668,7 +5676,7 @@
       </c>
       <c r="F61" s="50">
         <f>SUM(F58:F60)</f>
-        <v>0.2544736842105263</v>
+        <v>0.27342105263157895</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -5687,6 +5695,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="B42:J42"/>
     <mergeCell ref="A54:J54"/>
     <mergeCell ref="A16:A53"/>
@@ -5697,16 +5715,6 @@
     <mergeCell ref="B36:J36"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="200" r:id="rId1"/>
@@ -5741,29 +5749,29 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="93" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="45" t="s">
         <v>67</v>
       </c>
@@ -5781,22 +5789,22 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="94"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
         <v>136</v>
@@ -5815,33 +5823,33 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="95"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="96"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
         <v>88</v>
@@ -5860,7 +5868,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
         <v>89</v>
@@ -5879,7 +5887,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
         <v>90</v>
@@ -5898,20 +5906,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="97"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11" t="s">
         <v>92</v>
@@ -5928,7 +5936,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
         <v>93</v>
@@ -5947,33 +5955,33 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="91"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="96"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19" t="s">
         <v>95</v>
@@ -5990,7 +5998,7 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
         <v>96</v>
@@ -6007,7 +6015,7 @@
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
         <v>97</v>
@@ -6024,7 +6032,7 @@
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19" t="s">
         <v>98</v>
@@ -6043,7 +6051,7 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
         <v>99</v>
@@ -6062,7 +6070,7 @@
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19" t="s">
         <v>100</v>
@@ -6079,7 +6087,7 @@
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19" t="s">
         <v>101</v>
@@ -6096,7 +6104,7 @@
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
         <v>102</v>
@@ -6113,7 +6121,7 @@
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
         <v>133</v>
@@ -6132,7 +6140,7 @@
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19" t="s">
         <v>103</v>
@@ -6149,7 +6157,7 @@
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19" t="s">
         <v>104</v>
@@ -6166,20 +6174,20 @@
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="80" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="92"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="97"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
         <v>105</v>
@@ -6198,7 +6206,7 @@
       <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19" t="s">
         <v>120</v>
@@ -6217,7 +6225,7 @@
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
         <v>106</v>
@@ -6232,7 +6240,7 @@
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19" t="s">
         <v>121</v>
@@ -6247,20 +6255,20 @@
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="80" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="92"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="97"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="18"/>
       <c r="C33" s="19" t="s">
         <v>107</v>
@@ -6277,7 +6285,7 @@
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
         <v>51</v>
@@ -6296,7 +6304,7 @@
       <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
         <v>108</v>
@@ -6315,7 +6323,7 @@
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19" t="s">
         <v>109</v>
@@ -6334,20 +6342,20 @@
       <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="80" t="s">
+      <c r="A37" s="69"/>
+      <c r="B37" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="92"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="97"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19" t="s">
         <v>110</v>
@@ -6364,7 +6372,7 @@
       <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19" t="s">
         <v>111</v>
@@ -6385,7 +6393,7 @@
       <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19" t="s">
         <v>112</v>
@@ -6406,20 +6414,20 @@
       <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="80" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="92"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="97"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19" t="s">
         <v>113</v>
@@ -6442,20 +6450,20 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="80" t="s">
+      <c r="A43" s="69"/>
+      <c r="B43" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="92"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="97"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26" t="s">
         <v>123</v>
@@ -6470,7 +6478,7 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26" t="s">
         <v>124</v>
@@ -6485,7 +6493,7 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26" t="s">
         <v>125</v>
@@ -6500,7 +6508,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
+      <c r="A47" s="69"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26" t="s">
         <v>122</v>
@@ -6515,7 +6523,7 @@
       <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19" t="s">
         <v>114</v>
@@ -6530,7 +6538,7 @@
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19" t="s">
         <v>115</v>
@@ -6545,7 +6553,7 @@
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19" t="s">
         <v>116</v>
@@ -6560,7 +6568,7 @@
       <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19" t="s">
         <v>117</v>
@@ -6575,7 +6583,7 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="22" t="s">
         <v>137</v>
       </c>
@@ -6588,7 +6596,7 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19" t="s">
         <v>138</v>
@@ -6603,7 +6611,7 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19" t="s">
         <v>139</v>
@@ -6618,18 +6626,27 @@
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:A54"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B43:I43"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:I4"/>
@@ -6640,15 +6657,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:A54"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7048,7 +7056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
@@ -7058,1544 +7066,1544 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="100"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="102"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="101"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="102"/>
+      <c r="T35" s="102"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="102"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
+      <c r="A37" s="101"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="102"/>
+      <c r="S37" s="102"/>
+      <c r="T37" s="102"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="101"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="102"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="100"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
+      <c r="S39" s="102"/>
+      <c r="T39" s="102"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="101"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="102"/>
+      <c r="T40" s="102"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="101"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="102"/>
+      <c r="O41" s="102"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="102"/>
+      <c r="R41" s="102"/>
+      <c r="S41" s="102"/>
+      <c r="T41" s="102"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="100"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="101"/>
-      <c r="P42" s="101"/>
-      <c r="Q42" s="101"/>
-      <c r="R42" s="101"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="101"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="102"/>
+      <c r="N42" s="102"/>
+      <c r="O42" s="102"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="102"/>
+      <c r="T42" s="102"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
+      <c r="O43" s="102"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="102"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="102"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="100"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="102"/>
+      <c r="S44" s="102"/>
+      <c r="T44" s="102"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="100"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="101"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="101"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="102"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="100"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="101"/>
-      <c r="N46" s="101"/>
-      <c r="O46" s="101"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="101"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="102"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="102"/>
+      <c r="T46" s="102"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="100"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="101"/>
-      <c r="M47" s="101"/>
-      <c r="N47" s="101"/>
-      <c r="O47" s="101"/>
-      <c r="P47" s="101"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="101"/>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
+      <c r="A47" s="101"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="102"/>
+      <c r="O47" s="102"/>
+      <c r="P47" s="102"/>
+      <c r="Q47" s="102"/>
+      <c r="R47" s="102"/>
+      <c r="S47" s="102"/>
+      <c r="T47" s="102"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="100"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="101"/>
-      <c r="O48" s="101"/>
-      <c r="P48" s="101"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="101"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="101"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="102"/>
+      <c r="R48" s="102"/>
+      <c r="S48" s="102"/>
+      <c r="T48" s="102"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="100"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="101"/>
-      <c r="M49" s="101"/>
-      <c r="N49" s="101"/>
-      <c r="O49" s="101"/>
-      <c r="P49" s="101"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="101"/>
-      <c r="S49" s="101"/>
-      <c r="T49" s="101"/>
+      <c r="A49" s="101"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="102"/>
+      <c r="R49" s="102"/>
+      <c r="S49" s="102"/>
+      <c r="T49" s="102"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="100"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="101"/>
-      <c r="O50" s="101"/>
-      <c r="P50" s="101"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="101"/>
-      <c r="S50" s="101"/>
-      <c r="T50" s="101"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="102"/>
+      <c r="R50" s="102"/>
+      <c r="S50" s="102"/>
+      <c r="T50" s="102"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="100"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="101"/>
-      <c r="M51" s="101"/>
-      <c r="N51" s="101"/>
-      <c r="O51" s="101"/>
-      <c r="P51" s="101"/>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="101"/>
-      <c r="S51" s="101"/>
-      <c r="T51" s="101"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="102"/>
+      <c r="N51" s="102"/>
+      <c r="O51" s="102"/>
+      <c r="P51" s="102"/>
+      <c r="Q51" s="102"/>
+      <c r="R51" s="102"/>
+      <c r="S51" s="102"/>
+      <c r="T51" s="102"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="100"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="101"/>
-      <c r="M52" s="101"/>
-      <c r="N52" s="101"/>
-      <c r="O52" s="101"/>
-      <c r="P52" s="101"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="101"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="102"/>
+      <c r="Q52" s="102"/>
+      <c r="R52" s="102"/>
+      <c r="S52" s="102"/>
+      <c r="T52" s="102"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="101"/>
-      <c r="L53" s="101"/>
-      <c r="M53" s="101"/>
-      <c r="N53" s="101"/>
-      <c r="O53" s="101"/>
-      <c r="P53" s="101"/>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="101"/>
-      <c r="S53" s="101"/>
-      <c r="T53" s="101"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="102"/>
+      <c r="S53" s="102"/>
+      <c r="T53" s="102"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
-      <c r="M54" s="101"/>
-      <c r="N54" s="101"/>
-      <c r="O54" s="101"/>
-      <c r="P54" s="101"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="101"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="101"/>
+      <c r="A54" s="101"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="102"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="102"/>
+      <c r="S54" s="102"/>
+      <c r="T54" s="102"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="100"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="101"/>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
-      <c r="M55" s="101"/>
-      <c r="N55" s="101"/>
-      <c r="O55" s="101"/>
-      <c r="P55" s="101"/>
-      <c r="Q55" s="101"/>
-      <c r="R55" s="101"/>
-      <c r="S55" s="101"/>
-      <c r="T55" s="101"/>
+      <c r="A55" s="101"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="102"/>
+      <c r="R55" s="102"/>
+      <c r="S55" s="102"/>
+      <c r="T55" s="102"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="101"/>
-      <c r="M56" s="101"/>
-      <c r="N56" s="101"/>
-      <c r="O56" s="101"/>
-      <c r="P56" s="101"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="101"/>
-      <c r="S56" s="101"/>
-      <c r="T56" s="101"/>
+      <c r="A56" s="101"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="102"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="102"/>
+      <c r="O56" s="102"/>
+      <c r="P56" s="102"/>
+      <c r="Q56" s="102"/>
+      <c r="R56" s="102"/>
+      <c r="S56" s="102"/>
+      <c r="T56" s="102"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="100"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="101"/>
-      <c r="M57" s="101"/>
-      <c r="N57" s="101"/>
-      <c r="O57" s="101"/>
-      <c r="P57" s="101"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="101"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="101"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="102"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="102"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="102"/>
+      <c r="P57" s="102"/>
+      <c r="Q57" s="102"/>
+      <c r="R57" s="102"/>
+      <c r="S57" s="102"/>
+      <c r="T57" s="102"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="100"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="101"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="101"/>
-      <c r="M58" s="101"/>
-      <c r="N58" s="101"/>
-      <c r="O58" s="101"/>
-      <c r="P58" s="101"/>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="101"/>
-      <c r="S58" s="101"/>
-      <c r="T58" s="101"/>
+      <c r="A58" s="101"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="102"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="102"/>
+      <c r="L58" s="102"/>
+      <c r="M58" s="102"/>
+      <c r="N58" s="102"/>
+      <c r="O58" s="102"/>
+      <c r="P58" s="102"/>
+      <c r="Q58" s="102"/>
+      <c r="R58" s="102"/>
+      <c r="S58" s="102"/>
+      <c r="T58" s="102"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="100"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="101"/>
-      <c r="L59" s="101"/>
-      <c r="M59" s="101"/>
-      <c r="N59" s="101"/>
-      <c r="O59" s="101"/>
-      <c r="P59" s="101"/>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="101"/>
-      <c r="S59" s="101"/>
-      <c r="T59" s="101"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="102"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="102"/>
+      <c r="O59" s="102"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="102"/>
+      <c r="R59" s="102"/>
+      <c r="S59" s="102"/>
+      <c r="T59" s="102"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="100"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="101"/>
-      <c r="K60" s="101"/>
-      <c r="L60" s="101"/>
-      <c r="M60" s="101"/>
-      <c r="N60" s="101"/>
-      <c r="O60" s="101"/>
-      <c r="P60" s="101"/>
-      <c r="Q60" s="101"/>
-      <c r="R60" s="101"/>
-      <c r="S60" s="101"/>
-      <c r="T60" s="101"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="102"/>
+      <c r="J60" s="102"/>
+      <c r="K60" s="102"/>
+      <c r="L60" s="102"/>
+      <c r="M60" s="102"/>
+      <c r="N60" s="102"/>
+      <c r="O60" s="102"/>
+      <c r="P60" s="102"/>
+      <c r="Q60" s="102"/>
+      <c r="R60" s="102"/>
+      <c r="S60" s="102"/>
+      <c r="T60" s="102"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="100"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
-      <c r="H61" s="101"/>
-      <c r="I61" s="101"/>
-      <c r="J61" s="101"/>
-      <c r="K61" s="101"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="101"/>
-      <c r="N61" s="101"/>
-      <c r="O61" s="101"/>
-      <c r="P61" s="101"/>
-      <c r="Q61" s="101"/>
-      <c r="R61" s="101"/>
-      <c r="S61" s="101"/>
-      <c r="T61" s="101"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="102"/>
+      <c r="P61" s="102"/>
+      <c r="Q61" s="102"/>
+      <c r="R61" s="102"/>
+      <c r="S61" s="102"/>
+      <c r="T61" s="102"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="100"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="101"/>
-      <c r="I62" s="101"/>
-      <c r="J62" s="101"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="101"/>
-      <c r="M62" s="101"/>
-      <c r="N62" s="101"/>
-      <c r="O62" s="101"/>
-      <c r="P62" s="101"/>
-      <c r="Q62" s="101"/>
-      <c r="R62" s="101"/>
-      <c r="S62" s="101"/>
-      <c r="T62" s="101"/>
+      <c r="A62" s="101"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="102"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="102"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="102"/>
+      <c r="S62" s="102"/>
+      <c r="T62" s="102"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="100"/>
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
-      <c r="I63" s="101"/>
-      <c r="J63" s="101"/>
-      <c r="K63" s="101"/>
-      <c r="L63" s="101"/>
-      <c r="M63" s="101"/>
-      <c r="N63" s="101"/>
-      <c r="O63" s="101"/>
-      <c r="P63" s="101"/>
-      <c r="Q63" s="101"/>
-      <c r="R63" s="101"/>
-      <c r="S63" s="101"/>
-      <c r="T63" s="101"/>
+      <c r="A63" s="101"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="102"/>
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="102"/>
+      <c r="T63" s="102"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="100"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="101"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="101"/>
-      <c r="J64" s="101"/>
-      <c r="K64" s="101"/>
-      <c r="L64" s="101"/>
-      <c r="M64" s="101"/>
-      <c r="N64" s="101"/>
-      <c r="O64" s="101"/>
-      <c r="P64" s="101"/>
-      <c r="Q64" s="101"/>
-      <c r="R64" s="101"/>
-      <c r="S64" s="101"/>
-      <c r="T64" s="101"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="102"/>
+      <c r="L64" s="102"/>
+      <c r="M64" s="102"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="102"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="102"/>
+      <c r="S64" s="102"/>
+      <c r="T64" s="102"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="100"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="101"/>
-      <c r="J65" s="101"/>
-      <c r="K65" s="101"/>
-      <c r="L65" s="101"/>
-      <c r="M65" s="101"/>
-      <c r="N65" s="101"/>
-      <c r="O65" s="101"/>
-      <c r="P65" s="101"/>
-      <c r="Q65" s="101"/>
-      <c r="R65" s="101"/>
-      <c r="S65" s="101"/>
-      <c r="T65" s="101"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="102"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="102"/>
+      <c r="N65" s="102"/>
+      <c r="O65" s="102"/>
+      <c r="P65" s="102"/>
+      <c r="Q65" s="102"/>
+      <c r="R65" s="102"/>
+      <c r="S65" s="102"/>
+      <c r="T65" s="102"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="100"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="101"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="101"/>
-      <c r="J66" s="101"/>
-      <c r="K66" s="101"/>
-      <c r="L66" s="101"/>
-      <c r="M66" s="101"/>
-      <c r="N66" s="101"/>
-      <c r="O66" s="101"/>
-      <c r="P66" s="101"/>
-      <c r="Q66" s="101"/>
-      <c r="R66" s="101"/>
-      <c r="S66" s="101"/>
-      <c r="T66" s="101"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="102"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="102"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="102"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="102"/>
+      <c r="R66" s="102"/>
+      <c r="S66" s="102"/>
+      <c r="T66" s="102"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="100"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="100"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="101"/>
-      <c r="K67" s="101"/>
-      <c r="L67" s="101"/>
-      <c r="M67" s="101"/>
-      <c r="N67" s="101"/>
-      <c r="O67" s="101"/>
-      <c r="P67" s="101"/>
-      <c r="Q67" s="101"/>
-      <c r="R67" s="101"/>
-      <c r="S67" s="101"/>
-      <c r="T67" s="101"/>
+      <c r="A67" s="101"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="102"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="102"/>
+      <c r="T67" s="102"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="100"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="101"/>
-      <c r="G68" s="101"/>
-      <c r="H68" s="101"/>
-      <c r="I68" s="101"/>
-      <c r="J68" s="101"/>
-      <c r="K68" s="101"/>
-      <c r="L68" s="101"/>
-      <c r="M68" s="101"/>
-      <c r="N68" s="101"/>
-      <c r="O68" s="101"/>
-      <c r="P68" s="101"/>
-      <c r="Q68" s="101"/>
-      <c r="R68" s="101"/>
-      <c r="S68" s="101"/>
-      <c r="T68" s="101"/>
+      <c r="A68" s="101"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="102"/>
+      <c r="I68" s="102"/>
+      <c r="J68" s="102"/>
+      <c r="K68" s="102"/>
+      <c r="L68" s="102"/>
+      <c r="M68" s="102"/>
+      <c r="N68" s="102"/>
+      <c r="O68" s="102"/>
+      <c r="P68" s="102"/>
+      <c r="Q68" s="102"/>
+      <c r="R68" s="102"/>
+      <c r="S68" s="102"/>
+      <c r="T68" s="102"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="100"/>
-      <c r="B69" s="100"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="101"/>
-      <c r="I69" s="101"/>
-      <c r="J69" s="101"/>
-      <c r="K69" s="101"/>
-      <c r="L69" s="101"/>
-      <c r="M69" s="101"/>
-      <c r="N69" s="101"/>
-      <c r="O69" s="101"/>
-      <c r="P69" s="101"/>
-      <c r="Q69" s="101"/>
-      <c r="R69" s="101"/>
-      <c r="S69" s="101"/>
-      <c r="T69" s="101"/>
+      <c r="A69" s="101"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="102"/>
+      <c r="J69" s="102"/>
+      <c r="K69" s="102"/>
+      <c r="L69" s="102"/>
+      <c r="M69" s="102"/>
+      <c r="N69" s="102"/>
+      <c r="O69" s="102"/>
+      <c r="P69" s="102"/>
+      <c r="Q69" s="102"/>
+      <c r="R69" s="102"/>
+      <c r="S69" s="102"/>
+      <c r="T69" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A53:C69"/>
+    <mergeCell ref="D53:T69"/>
+    <mergeCell ref="A2:C18"/>
+    <mergeCell ref="D2:T18"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A19:C35"/>
     <mergeCell ref="D19:T35"/>
     <mergeCell ref="A36:C52"/>
     <mergeCell ref="D36:T52"/>
-    <mergeCell ref="A53:C69"/>
-    <mergeCell ref="D53:T69"/>
-    <mergeCell ref="A2:C18"/>
-    <mergeCell ref="D2:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
